--- a/public/templates/用户导入模版.xlsx
+++ b/public/templates/用户导入模版.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pro/workspace/theory-test-forge/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5C6F50-CD06-40C3-9D60-4DE112AF0F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81249031-6C0A-FB49-AD08-BEC8B9B3C682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37160" yWindow="3880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户导入" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用户导入!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用户导入!$D$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>所属部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>马医生1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,21 +399,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -420,10 +424,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -433,18 +440,21 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576" xr:uid="{37CF8063-6BE8-4E76-AFD3-E6085DC91E07}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E1048576" xr:uid="{37CF8063-6BE8-4E76-AFD3-E6085DC91E07}">
       <formula1>"普通考生,考试管理员"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00C91DB9-3058-4C69-9C59-898184A3128E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00C91DB9-3058-4C69-9C59-898184A3128E}">
       <formula1>"普通考生,考试管理员,系统管理员"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{4825EBCB-46A2-DE44-83FF-481FBB9B076D}">
+      <formula1>"指挥管理军官,专业技术军官,文职,军士,聘用制"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/用户导入模版.xlsx
+++ b/public/templates/用户导入模版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pro/workspace/theory-test-forge/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81249031-6C0A-FB49-AD08-BEC8B9B3C682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565BBF91-1DE2-CC42-BB2B-0B4FBD35AD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37160" yWindow="3880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户导入" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户类别</t>
+    <t>人员类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -453,7 +453,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00C91DB9-3058-4C69-9C59-898184A3128E}">
       <formula1>"普通考生,考试管理员,系统管理员"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{4825EBCB-46A2-DE44-83FF-481FBB9B076D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{4825EBCB-46A2-DE44-83FF-481FBB9B076D}">
       <formula1>"指挥管理军官,专业技术军官,文职,军士,聘用制"</formula1>
     </dataValidation>
   </dataValidations>
